--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\UiPath\Generate_Yearly_Report\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\UiPath\Yearly_Report\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370FA8E5-FE8B-4D40-B09D-2EE4A181C091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E112C5C9-9D00-4E85-81BF-00BF152F458E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="1815" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
   </si>
   <si>
@@ -130,6 +126,9 @@
   </si>
   <si>
     <t>https://acme-test.uipath.com</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueName</t>
   </si>
 </sst>
 </file>
@@ -517,7 +516,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -564,10 +563,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -587,18 +586,18 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1660,7 +1659,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1684,7 +1683,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1706,7 +1705,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1717,7 +1716,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1728,7 +1727,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2738,7 +2737,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
